--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1777,28 +1777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.6515179235287</v>
+        <v>226.1388625412592</v>
       </c>
       <c r="AB2" t="n">
-        <v>252.6483530728937</v>
+        <v>309.4131682713132</v>
       </c>
       <c r="AC2" t="n">
-        <v>228.5359488498809</v>
+        <v>279.8832097556997</v>
       </c>
       <c r="AD2" t="n">
-        <v>184651.5179235287</v>
+        <v>226138.8625412592</v>
       </c>
       <c r="AE2" t="n">
-        <v>252648.3530728937</v>
+        <v>309413.1682713132</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.767036619511605e-06</v>
+        <v>4.677812695129684e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.322530864197532</v>
       </c>
       <c r="AH2" t="n">
-        <v>228535.9488498809</v>
+        <v>279883.2097556997</v>
       </c>
     </row>
     <row r="3">
@@ -1883,28 +1883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.7701723521919</v>
+        <v>149.8430327653417</v>
       </c>
       <c r="AB3" t="n">
-        <v>162.5065895823984</v>
+        <v>205.0218480375013</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.9971887521301</v>
+        <v>185.4548506108315</v>
       </c>
       <c r="AD3" t="n">
-        <v>118770.1723521919</v>
+        <v>149843.0327653417</v>
       </c>
       <c r="AE3" t="n">
-        <v>162506.5895823984</v>
+        <v>205021.8480375013</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.747502515266955e-06</v>
+        <v>6.335338938897144e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.405092592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>146997.1887521301</v>
+        <v>185454.8506108315</v>
       </c>
     </row>
     <row r="4">
@@ -1989,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>112.0991728141486</v>
+        <v>132.928230731861</v>
       </c>
       <c r="AB4" t="n">
-        <v>153.3790337107234</v>
+        <v>181.8782696669049</v>
       </c>
       <c r="AC4" t="n">
-        <v>138.7407540022397</v>
+        <v>164.5200628777012</v>
       </c>
       <c r="AD4" t="n">
-        <v>112099.1728141486</v>
+        <v>132928.230731861</v>
       </c>
       <c r="AE4" t="n">
-        <v>153379.0337107234</v>
+        <v>181878.2696669049</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.93021400765181e-06</v>
+        <v>6.644221782223887e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.15432098765432</v>
       </c>
       <c r="AH4" t="n">
-        <v>138740.7540022397</v>
+        <v>164520.0628777012</v>
       </c>
     </row>
   </sheetData>
@@ -2286,28 +2286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.4094636016156</v>
+        <v>172.5959157871751</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.85091076177</v>
+        <v>236.1533463743132</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.2546133136927</v>
+        <v>213.6152024397203</v>
       </c>
       <c r="AD2" t="n">
-        <v>142409.4636016156</v>
+        <v>172595.9157871751</v>
       </c>
       <c r="AE2" t="n">
-        <v>194850.91076177</v>
+        <v>236153.3463743132</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.291664065114223e-06</v>
+        <v>5.700474227620059e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.369598765432099</v>
       </c>
       <c r="AH2" t="n">
-        <v>176254.6133136927</v>
+        <v>213615.2024397203</v>
       </c>
     </row>
     <row r="3">
@@ -2392,28 +2392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.0159066027262</v>
+        <v>126.1971317989973</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.0556405054953</v>
+        <v>172.6684831518385</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.2117337625602</v>
+        <v>156.1892454616133</v>
       </c>
       <c r="AD3" t="n">
-        <v>106015.9066027262</v>
+        <v>126197.1317989973</v>
       </c>
       <c r="AE3" t="n">
-        <v>145055.6405054952</v>
+        <v>172668.4831518385</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.058416915576484e-06</v>
+        <v>7.028329919012633e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.165895061728396</v>
       </c>
       <c r="AH3" t="n">
-        <v>131211.7337625602</v>
+        <v>156189.2454616133</v>
       </c>
     </row>
   </sheetData>
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.9957934936524</v>
+        <v>121.3418903317981</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.6091914597043</v>
+        <v>166.0253275782838</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.334910730958</v>
+        <v>150.1801033322691</v>
       </c>
       <c r="AD2" t="n">
-        <v>93995.7934936524</v>
+        <v>121341.8903317981</v>
       </c>
       <c r="AE2" t="n">
-        <v>128609.1914597043</v>
+        <v>166025.3275782838</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.153279763477367e-06</v>
+        <v>7.858899055606675e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.632716049382716</v>
       </c>
       <c r="AH2" t="n">
-        <v>116334.910730958</v>
+        <v>150180.1033322691</v>
       </c>
     </row>
   </sheetData>
@@ -2986,28 +2986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.67342192667114</v>
+        <v>125.992722062996</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.6410849272737</v>
+        <v>172.3888007331206</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.8865673482911</v>
+        <v>155.9362555404009</v>
       </c>
       <c r="AD2" t="n">
-        <v>97673.42192667114</v>
+        <v>125992.7220629959</v>
       </c>
       <c r="AE2" t="n">
-        <v>133641.0849272737</v>
+        <v>172388.8007331206</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.182563841729981e-06</v>
+        <v>7.619722972249555e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.35108024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>120886.5673482911</v>
+        <v>155936.2555404009</v>
       </c>
     </row>
     <row r="3">
@@ -3092,28 +3092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.05715275003723</v>
+        <v>126.376452886362</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.1661223688121</v>
+        <v>172.9138381746589</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.3614959533039</v>
+        <v>156.4111841454137</v>
       </c>
       <c r="AD3" t="n">
-        <v>98057.15275003723</v>
+        <v>126376.452886362</v>
       </c>
       <c r="AE3" t="n">
-        <v>134166.1223688121</v>
+        <v>172913.8381746589</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.17838806352783e-06</v>
+        <v>7.612115611238947e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.354938271604939</v>
       </c>
       <c r="AH3" t="n">
-        <v>121361.4959533039</v>
+        <v>156411.1841454137</v>
       </c>
     </row>
   </sheetData>
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.1384399243124</v>
+        <v>127.4611384794934</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.3820754174494</v>
+        <v>174.3979528561316</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.1750843601079</v>
+        <v>157.7536570046551</v>
       </c>
       <c r="AD2" t="n">
-        <v>101138.4399243124</v>
+        <v>127461.1384794934</v>
       </c>
       <c r="AE2" t="n">
-        <v>138382.0754174494</v>
+        <v>174397.9528561316</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.02043784977345e-06</v>
+        <v>7.878762798600529e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>125175.0843601079</v>
+        <v>157753.6570046551</v>
       </c>
     </row>
   </sheetData>
@@ -3686,28 +3686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.1403617107386</v>
+        <v>190.7578468162307</v>
       </c>
       <c r="AB2" t="n">
-        <v>205.4286666178203</v>
+        <v>261.0033016561025</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.8228429968184</v>
+        <v>236.0935128665548</v>
       </c>
       <c r="AD2" t="n">
-        <v>150140.3617107386</v>
+        <v>190757.8468162307</v>
       </c>
       <c r="AE2" t="n">
-        <v>205428.6666178203</v>
+        <v>261003.3016561025</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.14434391085184e-06</v>
+        <v>5.409784607875166e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.604938271604939</v>
       </c>
       <c r="AH2" t="n">
-        <v>185822.8429968184</v>
+        <v>236093.5128665548</v>
       </c>
     </row>
     <row r="3">
@@ -3792,28 +3792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.5578346606948</v>
+        <v>127.9093371492778</v>
       </c>
       <c r="AB3" t="n">
-        <v>147.1653744994717</v>
+        <v>175.0111980492601</v>
       </c>
       <c r="AC3" t="n">
-        <v>133.1201177051825</v>
+        <v>158.3083749372467</v>
       </c>
       <c r="AD3" t="n">
-        <v>107557.8346606948</v>
+        <v>127909.3371492778</v>
       </c>
       <c r="AE3" t="n">
-        <v>147165.3744994717</v>
+        <v>175011.1980492601</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.027129232124559e-06</v>
+        <v>6.928600163195736e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.158179012345679</v>
       </c>
       <c r="AH3" t="n">
-        <v>133120.1177051825</v>
+        <v>158308.3749372467</v>
       </c>
     </row>
     <row r="4">
@@ -3898,28 +3898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>107.9009074697674</v>
+        <v>128.2524099583503</v>
       </c>
       <c r="AB4" t="n">
-        <v>147.6347818521487</v>
+        <v>175.480605401937</v>
       </c>
       <c r="AC4" t="n">
-        <v>133.5447254789375</v>
+        <v>158.7329827110017</v>
       </c>
       <c r="AD4" t="n">
-        <v>107900.9074697674</v>
+        <v>128252.4099583503</v>
       </c>
       <c r="AE4" t="n">
-        <v>147634.7818521487</v>
+        <v>175480.605401937</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.021691240086955e-06</v>
+        <v>6.91924420008965e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.165895061728396</v>
       </c>
       <c r="AH4" t="n">
-        <v>133544.7254789375</v>
+        <v>158732.9827110016</v>
       </c>
     </row>
   </sheetData>
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.8826149640929</v>
+        <v>126.6497900668358</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.0320444206766</v>
+        <v>173.2878301637683</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.8584598303953</v>
+        <v>156.7494828639836</v>
       </c>
       <c r="AD2" t="n">
-        <v>100882.6149640929</v>
+        <v>126649.7900668358</v>
       </c>
       <c r="AE2" t="n">
-        <v>138032.0444206766</v>
+        <v>173287.8301637683</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.86372573051009e-06</v>
+        <v>7.745457878027155e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.435185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>124858.4598303954</v>
+        <v>156749.4828639836</v>
       </c>
     </row>
   </sheetData>
@@ -4492,28 +4492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.6695314139967</v>
+        <v>141.1122866469411</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.791179392595</v>
+        <v>193.0760560249769</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.2090036751746</v>
+        <v>174.6491482219543</v>
       </c>
       <c r="AD2" t="n">
-        <v>111669.5314139967</v>
+        <v>141112.2866469411</v>
       </c>
       <c r="AE2" t="n">
-        <v>152791.179392595</v>
+        <v>193076.0560249769</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.784835174586826e-06</v>
+        <v>6.703224333561618e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.706018518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>138209.0036751746</v>
+        <v>174649.1482219543</v>
       </c>
     </row>
     <row r="3">
@@ -4598,28 +4598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.5136585953766</v>
+        <v>121.1422515925572</v>
       </c>
       <c r="AB3" t="n">
-        <v>138.8954661566787</v>
+        <v>165.752173047815</v>
       </c>
       <c r="AC3" t="n">
-        <v>125.6394778077337</v>
+        <v>149.9330182868133</v>
       </c>
       <c r="AD3" t="n">
-        <v>101513.6585953766</v>
+        <v>121142.2515925572</v>
       </c>
       <c r="AE3" t="n">
-        <v>138895.4661566787</v>
+        <v>165752.173047815</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.152039474598504e-06</v>
+        <v>7.353570434695452e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.200617283950617</v>
       </c>
       <c r="AH3" t="n">
-        <v>125639.4778077337</v>
+        <v>149933.0182868133</v>
       </c>
     </row>
   </sheetData>
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.6735296621647</v>
+        <v>165.5948533976206</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.6345087773856</v>
+        <v>226.5741839478556</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.9178117993935</v>
+        <v>204.9502618308019</v>
       </c>
       <c r="AD2" t="n">
-        <v>135673.5296621647</v>
+        <v>165594.8533976206</v>
       </c>
       <c r="AE2" t="n">
-        <v>185634.5087773856</v>
+        <v>226574.1839478556</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.434704937849036e-06</v>
+        <v>5.98982549590634e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.161265432098766</v>
       </c>
       <c r="AH2" t="n">
-        <v>167917.8117993935</v>
+        <v>204950.2618308019</v>
       </c>
     </row>
     <row r="3">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.5063898250708</v>
+        <v>124.5108627212728</v>
       </c>
       <c r="AB3" t="n">
-        <v>142.9902530551279</v>
+        <v>170.3612554067558</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.3434639916657</v>
+        <v>154.102216294306</v>
       </c>
       <c r="AD3" t="n">
-        <v>104506.3898250708</v>
+        <v>124510.8627212728</v>
       </c>
       <c r="AE3" t="n">
-        <v>142990.2530551279</v>
+        <v>170361.2554067558</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.092193844754172e-06</v>
+        <v>7.136428738140674e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.169753086419753</v>
       </c>
       <c r="AH3" t="n">
-        <v>129343.4639916657</v>
+        <v>154102.216294306</v>
       </c>
     </row>
   </sheetData>
@@ -5298,28 +5298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>176.0578396702261</v>
+        <v>207.0702051503249</v>
       </c>
       <c r="AB2" t="n">
-        <v>240.890103360404</v>
+        <v>283.3225899792582</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.8998899871403</v>
+        <v>256.2826796374736</v>
       </c>
       <c r="AD2" t="n">
-        <v>176057.8396702262</v>
+        <v>207070.2051503249</v>
       </c>
       <c r="AE2" t="n">
-        <v>240890.103360404</v>
+        <v>283322.5899792582</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.887939142628371e-06</v>
+        <v>4.909305140319765e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.071759259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>217899.8899871403</v>
+        <v>256282.6796374735</v>
       </c>
     </row>
     <row r="3">
@@ -5404,28 +5404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.8502966026091</v>
+        <v>134.5252367588586</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.7749985322232</v>
+        <v>184.0633637679754</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.9080513039341</v>
+        <v>166.4966146645651</v>
       </c>
       <c r="AD3" t="n">
-        <v>113850.2966026091</v>
+        <v>134525.2367588586</v>
       </c>
       <c r="AE3" t="n">
-        <v>155774.9985322232</v>
+        <v>184063.3637679754</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.87094909514182e-06</v>
+        <v>6.580356909252689e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.277777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>140908.0513039341</v>
+        <v>166496.6146645651</v>
       </c>
     </row>
     <row r="4">
@@ -5510,28 +5510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>110.1326165642205</v>
+        <v>130.80755672047</v>
       </c>
       <c r="AB4" t="n">
-        <v>150.6883046912346</v>
+        <v>178.9766699269869</v>
       </c>
       <c r="AC4" t="n">
-        <v>136.3068243839082</v>
+        <v>161.8953877445392</v>
       </c>
       <c r="AD4" t="n">
-        <v>110132.6165642205</v>
+        <v>130807.55672047</v>
       </c>
       <c r="AE4" t="n">
-        <v>150688.3046912346</v>
+        <v>178976.6699269869</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.983813396868282e-06</v>
+        <v>6.772218741950464e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.127314814814814</v>
       </c>
       <c r="AH4" t="n">
-        <v>136306.8243839082</v>
+        <v>161895.3877445392</v>
       </c>
     </row>
   </sheetData>
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.0609168178987</v>
+        <v>128.7147637007681</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.9077607662905</v>
+        <v>176.1132181899202</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.8414762300415</v>
+        <v>159.3052198223776</v>
       </c>
       <c r="AD2" t="n">
-        <v>100060.9168178987</v>
+        <v>128714.7637007681</v>
       </c>
       <c r="AE2" t="n">
-        <v>136907.7607662905</v>
+        <v>176113.2181899202</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.130618270533255e-06</v>
+        <v>7.448482211041354e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.347222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>123841.4762300415</v>
+        <v>159305.2198223775</v>
       </c>
     </row>
     <row r="3">
@@ -5913,28 +5913,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.2383467424592</v>
+        <v>127.8921936253286</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.7822840998442</v>
+        <v>174.9877415234739</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.823413477024</v>
+        <v>158.2871570693601</v>
       </c>
       <c r="AD3" t="n">
-        <v>99238.34674245919</v>
+        <v>127892.1936253286</v>
       </c>
       <c r="AE3" t="n">
-        <v>135782.2840998442</v>
+        <v>174987.7415234739</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.171681623924254e-06</v>
+        <v>7.522529154434907e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.297067901234568</v>
       </c>
       <c r="AH3" t="n">
-        <v>122823.413477024</v>
+        <v>158287.1570693601</v>
       </c>
     </row>
   </sheetData>
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.3368753209492</v>
+        <v>123.0920368193776</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.4441187801654</v>
+        <v>168.4199552136025</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.9947151632916</v>
+        <v>152.3461910669548</v>
       </c>
       <c r="AD2" t="n">
-        <v>95336.8753209492</v>
+        <v>123092.0368193776</v>
       </c>
       <c r="AE2" t="n">
-        <v>130444.1187801654</v>
+        <v>168419.9552136025</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.167372202780214e-06</v>
+        <v>7.774984460127176e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.524691358024691</v>
       </c>
       <c r="AH2" t="n">
-        <v>117994.7151632917</v>
+        <v>152346.1910669548</v>
       </c>
     </row>
   </sheetData>
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.17259217958548</v>
+        <v>120.0730601190632</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.4828511047196</v>
+        <v>164.2892581043824</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.3160667186242</v>
+        <v>148.6097218923675</v>
       </c>
       <c r="AD2" t="n">
-        <v>93172.59217958548</v>
+        <v>120073.0601190632</v>
       </c>
       <c r="AE2" t="n">
-        <v>127482.8511047196</v>
+        <v>164289.2581043824</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.096317205647822e-06</v>
+        <v>7.877369892681262e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.814043209876544</v>
       </c>
       <c r="AH2" t="n">
-        <v>115316.0667186242</v>
+        <v>148609.7218923675</v>
       </c>
     </row>
   </sheetData>
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.0781892404543</v>
+        <v>135.2844789993129</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.6138348256936</v>
+        <v>185.1021924967682</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.2394618178153</v>
+        <v>167.4362990374875</v>
       </c>
       <c r="AD2" t="n">
-        <v>110078.1892404543</v>
+        <v>135284.4789993129</v>
       </c>
       <c r="AE2" t="n">
-        <v>150613.8348256936</v>
+        <v>185102.1924967682</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.58857561724449e-06</v>
+        <v>7.401793632787371e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.121913580246915</v>
       </c>
       <c r="AH2" t="n">
-        <v>136239.4618178153</v>
+        <v>167436.2990374875</v>
       </c>
     </row>
   </sheetData>
@@ -10786,28 +10786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.6321139521713</v>
+        <v>148.362791862733</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.3176919887835</v>
+        <v>202.9965171309333</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.8263192797303</v>
+        <v>183.6228144434159</v>
       </c>
       <c r="AD2" t="n">
-        <v>118632.1139521713</v>
+        <v>148362.791862733</v>
       </c>
       <c r="AE2" t="n">
-        <v>162317.6919887835</v>
+        <v>202996.5171309333</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.59855764443387e-06</v>
+        <v>6.322523826175409e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>146826.3192797303</v>
+        <v>183622.8144434159</v>
       </c>
     </row>
     <row r="3">
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.0717502576462</v>
+        <v>122.8922917065717</v>
       </c>
       <c r="AB3" t="n">
-        <v>141.0273159071477</v>
+        <v>168.1466551381293</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.5678668100886</v>
+        <v>152.0989743671055</v>
       </c>
       <c r="AD3" t="n">
-        <v>103071.7502576462</v>
+        <v>122892.2917065717</v>
       </c>
       <c r="AE3" t="n">
-        <v>141027.3159071477</v>
+        <v>168146.6551381293</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.120748441091681e-06</v>
+        <v>7.23999245663775e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.185185185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>127567.8668100886</v>
+        <v>152098.9743671055</v>
       </c>
     </row>
   </sheetData>
@@ -11189,28 +11189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.6745670964998</v>
+        <v>198.6208533315898</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.7372988122966</v>
+        <v>271.7618140617765</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.1476338029134</v>
+        <v>245.8252479479018</v>
       </c>
       <c r="AD2" t="n">
-        <v>157674.5670964998</v>
+        <v>198620.8533315898</v>
       </c>
       <c r="AE2" t="n">
-        <v>215737.2988122966</v>
+        <v>271761.8140617766</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.013112856248502e-06</v>
+        <v>5.152087195670261e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.83641975308642</v>
       </c>
       <c r="AH2" t="n">
-        <v>195147.6338029134</v>
+        <v>245825.2479479018</v>
       </c>
     </row>
     <row r="3">
@@ -11295,28 +11295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.8215642501866</v>
+        <v>130.3374673035685</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.262709192514</v>
+        <v>178.3334728479011</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.9218471222583</v>
+        <v>161.3135764919485</v>
       </c>
       <c r="AD3" t="n">
-        <v>109821.5642501866</v>
+        <v>130337.4673035685</v>
       </c>
       <c r="AE3" t="n">
-        <v>150262.709192514</v>
+        <v>178333.4728479011</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.968749184646619e-06</v>
+        <v>6.786118818829356e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.189043209876543</v>
       </c>
       <c r="AH3" t="n">
-        <v>135921.8471222583</v>
+        <v>161313.5764919484</v>
       </c>
     </row>
     <row r="4">
@@ -11401,28 +11401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>109.1875880085728</v>
+        <v>129.7034910619547</v>
       </c>
       <c r="AB4" t="n">
-        <v>149.3952749296805</v>
+        <v>177.4660385850677</v>
       </c>
       <c r="AC4" t="n">
-        <v>135.1371995680178</v>
+        <v>160.5289289377079</v>
       </c>
       <c r="AD4" t="n">
-        <v>109187.5880085728</v>
+        <v>129703.4910619547</v>
       </c>
       <c r="AE4" t="n">
-        <v>149395.2749296805</v>
+        <v>177466.0385850677</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.996826306287541e-06</v>
+        <v>6.834127567853636e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.15432098765432</v>
       </c>
       <c r="AH4" t="n">
-        <v>135137.1995680178</v>
+        <v>160528.9289377079</v>
       </c>
     </row>
   </sheetData>
@@ -11698,28 +11698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.6683050538044</v>
+        <v>162.2726065329685</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.4719426013338</v>
+        <v>222.0285392204534</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.5840940443475</v>
+        <v>200.8384470563291</v>
       </c>
       <c r="AD2" t="n">
-        <v>121668.3050538044</v>
+        <v>162272.6065329685</v>
       </c>
       <c r="AE2" t="n">
-        <v>166471.9426013338</v>
+        <v>222028.5392204534</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.062605680155415e-06</v>
+        <v>6.564574579536423e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.641975308641975</v>
       </c>
       <c r="AH2" t="n">
-        <v>150584.0940443475</v>
+        <v>200838.4470563291</v>
       </c>
     </row>
   </sheetData>
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.19937201587514</v>
+        <v>124.1635117405207</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.6242248088312</v>
+        <v>169.8859944708472</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.0621935288711</v>
+        <v>153.6723135950876</v>
       </c>
       <c r="AD2" t="n">
-        <v>96199.37201587514</v>
+        <v>124163.5117405207</v>
       </c>
       <c r="AE2" t="n">
-        <v>131624.2248088312</v>
+        <v>169885.9944708472</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.194752392988427e-06</v>
+        <v>7.72854828554735e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.405092592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>119062.1935288711</v>
+        <v>153672.3135950876</v>
       </c>
     </row>
   </sheetData>
@@ -12292,28 +12292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.7490315384214</v>
+        <v>133.7197320605359</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.322246151931</v>
+        <v>182.9612367033716</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.6437721332652</v>
+        <v>165.4996730601617</v>
       </c>
       <c r="AD2" t="n">
-        <v>104749.0315384214</v>
+        <v>133719.7320605359</v>
       </c>
       <c r="AE2" t="n">
-        <v>143322.2461519309</v>
+        <v>182961.2367033716</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.99099010268286e-06</v>
+        <v>7.129612562847445e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.47067901234568</v>
       </c>
       <c r="AH2" t="n">
-        <v>129643.7721332652</v>
+        <v>165499.6730601617</v>
       </c>
     </row>
     <row r="3">
@@ -12398,28 +12398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.80364924958046</v>
+        <v>119.231267239936</v>
       </c>
       <c r="AB3" t="n">
-        <v>136.5557559294736</v>
+        <v>163.1374799498803</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.5230662408084</v>
+        <v>147.5678678283999</v>
       </c>
       <c r="AD3" t="n">
-        <v>99803.64924958046</v>
+        <v>119231.267239936</v>
       </c>
       <c r="AE3" t="n">
-        <v>136555.7559294736</v>
+        <v>163137.4799498803</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.189939646178014e-06</v>
+        <v>7.485021403305932e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.212191358024691</v>
       </c>
       <c r="AH3" t="n">
-        <v>123523.0662408084</v>
+        <v>147567.8678283999</v>
       </c>
     </row>
   </sheetData>
